--- a/dataSet/JM1_point.xlsx
+++ b/dataSet/JM1_point.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1A594-9EAB-4254-8FF1-91AECD24A66D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +16,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +30,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -54,20 +59,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{5001DE0E-5277-44B0-943A-8FDDACF1C07F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +164,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +216,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,220 +408,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:IK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-      <c r="J1">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>10</v>
-      </c>
-      <c r="O1">
-        <v>10</v>
-      </c>
-      <c r="P1">
-        <v>10</v>
-      </c>
-      <c r="Q1">
-        <v>13</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>20</v>
-      </c>
-      <c r="T1">
-        <v>21</v>
-      </c>
-      <c r="U1">
-        <v>23</v>
-      </c>
-      <c r="V1">
-        <v>26</v>
-      </c>
-      <c r="W1">
-        <v>31</v>
-      </c>
-      <c r="X1">
-        <v>35</v>
-      </c>
-      <c r="Y1">
-        <v>39</v>
-      </c>
-      <c r="Z1">
-        <v>46</v>
-      </c>
-      <c r="AA1">
-        <v>59</v>
-      </c>
-      <c r="AB1">
-        <v>63</v>
-      </c>
-      <c r="AC1">
-        <v>68</v>
-      </c>
-      <c r="AD1">
-        <v>70</v>
-      </c>
-      <c r="AE1">
-        <v>73</v>
-      </c>
-      <c r="AF1">
-        <v>81</v>
-      </c>
-      <c r="AG1">
-        <v>88</v>
-      </c>
-      <c r="AH1">
-        <v>95</v>
-      </c>
-      <c r="AI1">
-        <v>105</v>
-      </c>
-      <c r="AJ1">
-        <v>106</v>
-      </c>
-      <c r="AK1">
-        <v>110</v>
-      </c>
-      <c r="AL1">
-        <v>119</v>
-      </c>
-      <c r="AM1">
-        <v>127</v>
-      </c>
-      <c r="AN1">
-        <v>142</v>
-      </c>
-      <c r="AO1">
-        <v>154</v>
-      </c>
-      <c r="AP1">
-        <v>154</v>
-      </c>
-      <c r="AQ1">
-        <v>177</v>
-      </c>
-      <c r="AR1">
-        <v>192</v>
-      </c>
-      <c r="AS1">
-        <v>201</v>
-      </c>
-      <c r="AT1">
-        <v>211</v>
-      </c>
-      <c r="AU1">
-        <v>221</v>
-      </c>
-      <c r="AV1">
-        <v>227</v>
-      </c>
-      <c r="AW1">
-        <v>238</v>
-      </c>
-      <c r="AX1">
-        <v>262</v>
-      </c>
-      <c r="AY1">
-        <v>265</v>
-      </c>
-      <c r="AZ1">
-        <v>270</v>
-      </c>
-      <c r="BA1">
-        <v>272</v>
-      </c>
-      <c r="BB1">
-        <v>283</v>
-      </c>
-      <c r="BC1">
-        <v>289</v>
-      </c>
-      <c r="BD1">
-        <v>292</v>
-      </c>
-      <c r="BE1">
-        <v>302</v>
-      </c>
-      <c r="BF1">
-        <v>310</v>
-      </c>
-      <c r="BG1">
-        <v>311</v>
-      </c>
-      <c r="BH1">
-        <v>318</v>
-      </c>
-      <c r="BI1">
-        <v>353</v>
-      </c>
-      <c r="BJ1">
-        <v>359</v>
-      </c>
-      <c r="BK1">
-        <v>361</v>
-      </c>
-      <c r="BL1">
-        <v>368</v>
-      </c>
-      <c r="BM1">
-        <v>374</v>
-      </c>
-      <c r="BN1">
-        <v>382</v>
-      </c>
-      <c r="BO1">
-        <v>383</v>
-      </c>
-      <c r="BP1">
-        <v>385</v>
-      </c>
-      <c r="BQ1">
-        <v>385</v>
+    <row r="1" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>0.69801949650468398</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.83374702334560802</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.59513557759300895</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.87151507800115202</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.80594942316544105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.83374702334560802</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.933747023345608</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.99594942316544099</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.90594942316544103</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.95594942316544096</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.82164681760634695</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.90594942316544103</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.84787853951390801</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.51921184614313598</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.96594942316544097</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.68624337503314303</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.78059494231654403</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.32001744115478897</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.83374702334560802</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.90594942316544103</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.878000380120465</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.74064308843293902</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.90594942316544103</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.83374702334560802</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.87751838950100503</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.74734609114559003</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.73370374421631301</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.97992322976656299</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.85008059065553399</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.54527229085442697</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.16207778593081901</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.68078472930966405</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.68138163229391402</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.30883084578204001</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.96121618764091099</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.47654071913198898</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.96957403214400895</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.66501740629860195</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.90760847663875599</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.74165670483324597</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.89091734528699296</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0.88994916991377904</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0.55625725153558303</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0.88459367433858904</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0.63432073064981798</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0.631861476950632</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0.631861476950632</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0.678099611800557</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0.66141063695874802</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0.41122454749159898</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>0.67240788043153499</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>0.65324943999211205</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>0.74485116923718797</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>0.83344846575425802</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>0.83278021250418899</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>0.58127949094372799</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>0.88145421887362996</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>0.42729774852796198</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>0.69378131136303101</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>0.58436821411311202</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>0.66131363088936701</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>0.93846522690864698</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>0.96361083522041302</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>0.92631059165964802</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>0.91799647497707604</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>0.89001189933756597</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>0.97247826197212095</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>0.94798052635471697</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>0.95793152334697396</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>0.92099255260109203</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>0.32009765440494597</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>0.84114140081351196</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>0.82042300579123195</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>0.79520043310828203</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>0.88779688261206502</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>0.92428414882647303</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>0.89464089501279798</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>0.62202400489621801</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>0.88741586113530901</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>0.85684684960813196</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>0.34562874426944701</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>0.36361083522041299</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>0.87164336009499999</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>0.12382881298003599</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>0.74918586675124699</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>0.47259765451026597</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>0.70978683879513904</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>0.85820266314760796</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>0.87730651239410395</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>0.96106183540319201</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>0.97061835403192498</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>0.98061835403192499</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>0.90061835403192503</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>0.89914260808765101</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>0.79370629191123498</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>0.75507419217711902</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>0.89163290594863098</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>0.87618631470294805</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>0.90061482310117003</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>2.5047941223920001E-2</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>0.150856596095468</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>0.74865350958430099</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>0.118001472040919</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>0.15438466573578999</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>0.48012684582876303</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>0.33781311363031802</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>8.0229060610918099E-2</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>0.26296601941075998</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>4.4960399777880002E-2</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>0.347450010461898</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>0.30602005116799003</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>0.738740124034166</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>0.16854131280172099</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>0.80702754190451698</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>0.84746381201352905</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>0.42067166537739797</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>0.92115672693830597</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>0.77788751966477299</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>0.54206935915737997</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>0.47884392319200902</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>0.44846832084321803</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>0.463316205095821</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>0.31991075039303402</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>0.30602005116799003</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>0.278156527087219</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>0.278156527087219</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>0.12644293946936999</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>0.278156527087219</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>0.60190857708735701</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>0.63106164708830104</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>0.42605283119968301</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>0.106203937795726</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>0.27856493280120198</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>0.36996115381413103</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>0.19064160941820699</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>0.104543875759986</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>0.116358374190736</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>0.172830280512698</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>0.17800038012046501</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>0.19351365132717999</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>0.19351365132717999</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>0.19351365132717999</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>0.19351365132717999</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>0.42537440884217398</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>0.39048633704726399</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>3.9465637327986997E-2</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>0.396493727013421</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>0.13963843068582901</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>0.40208217721792</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>0.40208217721792</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>0.34954528984553601</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>0.34954528984553601</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>0.121646817606347</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>0.114478489306861</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>0.380857017338399</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>8.3222335397067498E-2</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>0.27822847967143999</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>7.7301033945104694E-2</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>0.381067822743688</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>0.62911605449252705</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>8.5861576806450998E-2</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>0.77233267822919005</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>8.9949169914348204E-2</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>0.85068775646038797</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>9.9314754236274894E-2</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>9.6576425089324403E-2</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>0.79300007318886401</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>0.80388488047537898</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>0.72422642571905205</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>7.9923229766563894E-2</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>0.110481044149651</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>7.3924711949530306E-2</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>0.71059201498979896</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>0.53928109191413398</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>0.31866957746910801</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>0.67249214413766301</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>0.74998650661683497</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>0.74998650661683497</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>8.3402584716623096E-2</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>8.5861576806450998E-2</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>0.44309304692740098</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>0.76259447139597103</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>0.72888513529159105</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>0.29482992355951798</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>0.39210877379605302</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>0.67014951972140502</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>0.36760292637595099</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>9.3239789299332104E-2</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>0.264642432354321</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>0.59631161394034304</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>0.12093130772939201</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>0.12648155638498701</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>9.3239789299332104E-2</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>0.11552065735349901</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>8.99491699137797E-2</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>0.53624056123791697</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>0.47458854956262198</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>7.8547920065943799E-2</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>7.8547920065943799E-2</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>7.8547920065943799E-2</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>0.17064308843293899</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>9.3613193666101296E-2</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>7.5195039222876403E-2</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>9.6691655815902694E-2</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>0.78391254614166395</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>0.72182889261517802</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>8.5861576806450998E-2</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>0.49535671660538699</v>
+      </c>
+      <c r="II1" s="1">
+        <v>0.21215494440916699</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>7.7301033945104694E-2</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>7.8547920065943799E-2</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -595,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
